--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81E303C-9CB0-4B6C-9148-1CC1F9C7050A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09763D01-064D-4BB0-88A8-CC8129D14856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>TB_Ratio_4_4.04</t>
   </si>
   <si>
-    <t>TB_Oscillation_500_250_125_60_30_Tone</t>
-  </si>
-  <si>
     <t>TB_Var_400_200_100_50_Reg</t>
   </si>
   <si>
@@ -351,17 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2</t>
-  </si>
-  <si>
-    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>256ms,512ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,6 +520,22 @@
   </si>
   <si>
     <t>-11000,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 992, 4000, 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 992, 4000, 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, 32-1s, Noise, BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Oscillation_500_250_125_60_30_BF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -963,13 +965,13 @@
         <v>42</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -980,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>46</v>
@@ -992,13 +994,13 @@
         <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -1009,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>21</v>
@@ -1021,13 +1023,13 @@
         <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -1038,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>24</v>
@@ -1050,13 +1052,13 @@
         <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1069,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>26</v>
@@ -1079,13 +1081,13 @@
         <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -1096,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>29</v>
@@ -1108,13 +1110,13 @@
         <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -1125,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>31</v>
@@ -1137,13 +1139,13 @@
         <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1166,13 +1168,13 @@
         <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1195,13 +1197,13 @@
         <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -1212,7 +1214,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>34</v>
@@ -1224,13 +1226,13 @@
         <v>43</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -1241,7 +1243,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>40</v>
@@ -1253,13 +1255,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
@@ -1267,57 +1269,57 @@
         <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
@@ -1325,231 +1327,231 @@
         <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09763D01-064D-4BB0-88A8-CC8129D14856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0175B35-E403-47DB-9484-8626264FF937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
   <si>
     <t>paradigm</t>
   </si>
@@ -302,9 +302,6 @@
     <t>tone250-200-60ms, tone5000-4000-60ms, tone250-200-30ms, tone5000-4000-30ms</t>
   </si>
   <si>
-    <t>reg4-4o06, reg4o06-4, irreg4-4o06, irreg4o06-4, irreg4-4o06-Rep3, irreg4o06-4-Rep3, Tone250-246,Tone246-250, Tone250-200, Tone200-250</t>
-  </si>
-  <si>
     <t>reg4-4o06, reg4o06-4, reg8-8o12, reg8o12-8,reg20-20o3, reg20o3-20</t>
   </si>
   <si>
@@ -356,17 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>496.2, 752.2, 1008.3, 2000.6, 500.5, 752.7, 1001, 2001.9</t>
-  </si>
-  <si>
-    <t>496.2, 752.2, 1008.3, 2000.6, 500.5, 752.7, 1001, 2001.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16ms-D500,16ms-D750,16ms-D1000,16ms-D2000,4ms-D500,4ms-D750,4ms-D1000,4ms-D2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16ms-Var2,16ms-Var10,16ms-Var50,16ms-Var250,16ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,18 +473,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,4,8,16,32,64,128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>256,512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,16,16,16,4,4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26.4,24,26.4,24,40,24,40,24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +514,214 @@
   </si>
   <si>
     <t>TB_Oscillation_500_250_125_60_30_BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000, #AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FF69B4, #FF1493, #FFA500, #FF7F50, #00FF00, #32CD32, #0000FF, #1E90FF, #000000, #AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #0000FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotRows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rayleigh statistic(RS) + mean FR for osci and offset Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(spike train FFT) for osci and offset Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 1900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500, 7500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFTWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toPlotFFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9500,-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3800,-200_9:-950,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5; 2,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-500,0_2:-750,0_3:-1000,0_4:-2000,0_5:-500,0_6:-750,0_7:-1000,0_8:-2000,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1900,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFP_CompareSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSTH_CompareSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chPlotFcn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_Osci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareCol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-D500,16ms-D750,16ms-D1000,16ms-D2000,4ms-D500,4ms-D750,4ms-D1000,4ms-D2000,Noise-D500,Noise-D2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496.2, 752.2, 1008.3, 2000.6, 500.5, 752.7, 1001, 2001.9, 500, 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496.2, 752.2, 1008.3, 2000.6, 500.5, 752.7, 1001, 2001.9, 500, 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16,16,4,4,4,4,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16,16,16,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11000, 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2100,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3100,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32,64,128,32,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,3,5; 2,8,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3,2,1;8,7,6,5;10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg4-4o06, reg4o06-4, irreg4-4o06, irreg4o06-4, irreg4-4o06-Rep2, irreg4o06-4-Rep2, Tone250-246,Tone246-250, Tone250-200, Tone200-250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,3,2,1;10,9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legendFontSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_Offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +763,15 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -620,13 +815,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -643,9 +836,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -926,632 +1136,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="43" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="43" style="6" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="69.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="17" width="15.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" customWidth="1"/>
+    <col min="19" max="19" width="20" style="12" customWidth="1"/>
+    <col min="20" max="20" width="13" style="12" customWidth="1"/>
+    <col min="21" max="21" width="31.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O12" s="19">
+        <v>12</v>
+      </c>
+      <c r="P12" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R12" t="s">
+        <v>175</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O13" s="19">
+        <v>12</v>
+      </c>
+      <c r="P13" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" s="19">
+        <v>8</v>
+      </c>
+      <c r="P14" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R14" t="s">
+        <v>176</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="I15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" s="19">
+        <v>12</v>
+      </c>
+      <c r="P15" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="16" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="19">
+        <v>8</v>
+      </c>
+      <c r="P16" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>107</v>
+      <c r="M17" s="10">
+        <v>6</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="10">
+        <v>8</v>
+      </c>
+      <c r="P17" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>109</v>
+    <row r="18" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="19">
+        <v>12</v>
+      </c>
+      <c r="P18" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="19" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="19">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>111</v>
+      <c r="P19" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>113</v>
+    <row r="20" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="19">
+        <v>8</v>
+      </c>
+      <c r="P20" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="21" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>6</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="10">
+        <v>12</v>
+      </c>
+      <c r="P21" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>126</v>
+      <c r="Q21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0175B35-E403-47DB-9484-8626264FF937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E611A9-8FCE-48C5-A6FA-3A9D53BE1804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="189">
   <si>
     <t>paradigm</t>
   </si>
@@ -302,9 +302,6 @@
     <t>tone250-200-60ms, tone5000-4000-60ms, tone250-200-30ms, tone5000-4000-30ms</t>
   </si>
   <si>
-    <t>reg4-4o06, reg4o06-4, reg8-8o12, reg8o12-8,reg20-20o3, reg20o3-20</t>
-  </si>
-  <si>
     <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,6 +719,38 @@
   </si>
   <si>
     <t>@MLA_PlotRasterLfp_Offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg4-4o06, reg4o06-4, reg8-8o12, reg8o12-8,reg16-16o24, reg16o24-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2100,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200, 8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4100,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10500,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3200,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3500,3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1149,22 +1178,24 @@
     <col min="3" max="3" width="41.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="43" style="6" customWidth="1"/>
     <col min="5" max="5" width="40.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="69.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
-    <col min="14" max="17" width="15.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" customWidth="1"/>
-    <col min="19" max="19" width="20" style="12" customWidth="1"/>
-    <col min="20" max="20" width="13" style="12" customWidth="1"/>
-    <col min="21" max="21" width="31.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="69.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="18" width="15.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="20" style="12" customWidth="1"/>
+    <col min="21" max="21" width="13" style="12" customWidth="1"/>
+    <col min="22" max="22" width="31.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1183,53 +1214,56 @@
       <c r="F1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="S1" s="17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>160</v>
+      <c r="U1" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1248,29 +1282,30 @@
       <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="S2" s="11" t="s">
-        <v>138</v>
-      </c>
+      <c r="R2" s="3"/>
       <c r="T2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1289,25 +1324,26 @@
       <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="S3" s="11"/>
+      <c r="R3" s="3"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="3"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1326,25 +1362,26 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="S4" s="11"/>
+      <c r="R4" s="3"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="3"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1363,25 +1400,26 @@
       <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="S5" s="11"/>
+      <c r="R5" s="3"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="3"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1400,25 +1438,26 @@
       <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="3"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="3"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>31</v>
@@ -1437,25 +1476,26 @@
       <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>112</v>
+      <c r="G7" s="3"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="S7" s="11"/>
+      <c r="R7" s="3"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1474,25 +1514,26 @@
       <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="S8" s="11"/>
+      <c r="R8" s="3"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="3"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1511,25 +1552,26 @@
       <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="S9" s="11"/>
+      <c r="R9" s="3"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="3"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1548,25 +1590,26 @@
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>113</v>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="S10" s="11"/>
+      <c r="R10" s="3"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="3"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1585,28 +1628,29 @@
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>113</v>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="S11" s="11"/>
+      <c r="R11" s="3"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="3"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1614,7 +1658,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>57</v>
@@ -1623,55 +1667,58 @@
         <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12">
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O12" s="19">
+      <c r="O12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="19">
         <v>12</v>
       </c>
-      <c r="P12" s="19">
+      <c r="Q12" s="19">
         <v>4</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R12" t="s">
-        <v>175</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>148</v>
+      <c r="R12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" t="s">
+        <v>174</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1679,7 +1726,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>66</v>
@@ -1688,55 +1735,58 @@
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="10">
+      <c r="L13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="10">
         <v>1</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>6</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O13" s="19">
+      <c r="O13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="19">
         <v>12</v>
       </c>
-      <c r="P13" s="19">
+      <c r="Q13" s="19">
         <v>4</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>148</v>
+      <c r="R13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1744,129 +1794,135 @@
         <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14">
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O14" s="19">
+      <c r="O14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="19">
         <v>8</v>
       </c>
-      <c r="P14" s="19">
+      <c r="Q14" s="19">
         <v>4</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" t="s">
-        <v>176</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>157</v>
+      <c r="R14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" t="s">
+        <v>175</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" s="10">
+        <v>117</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" s="10">
         <v>1</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>6</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" s="19">
+      <c r="O15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" s="19">
         <v>12</v>
       </c>
-      <c r="P15" s="19">
+      <c r="Q15" s="19">
         <v>4</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>157</v>
+      <c r="R15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1874,64 +1930,67 @@
         <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16">
+      <c r="L16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>6</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" s="19">
+      <c r="O16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="19">
         <v>8</v>
       </c>
-      <c r="P16" s="19">
+      <c r="Q16" s="19">
         <v>4</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R16" t="s">
-        <v>146</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>157</v>
+      <c r="R16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" t="s">
+        <v>145</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1939,64 +1998,67 @@
         <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>174</v>
+        <v>123</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" s="10">
+        <v>173</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="10">
         <v>1</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>6</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="O17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="10">
         <v>8</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>6</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>148</v>
+      <c r="R17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -2004,64 +2066,67 @@
         <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="10">
+        <v>118</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="10">
         <v>1</v>
       </c>
-      <c r="M18" s="10">
+      <c r="N18" s="10">
         <v>6</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="19">
+      <c r="O18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="19">
         <v>12</v>
       </c>
-      <c r="P18" s="10">
+      <c r="Q18" s="10">
         <v>6</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>157</v>
+      <c r="R18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -2069,64 +2134,67 @@
         <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>6</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="19">
+      <c r="O19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="19">
         <v>12</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>6</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>148</v>
+      <c r="R19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2134,64 +2202,67 @@
         <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>169</v>
+        <v>121</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20">
+        <v>168</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="10">
         <v>6</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="19">
+      <c r="O20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="19">
         <v>8</v>
       </c>
-      <c r="P20" s="10">
+      <c r="Q20" s="10">
         <v>4</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>148</v>
+      <c r="R20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2199,61 +2270,64 @@
         <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>121</v>
+        <v>187</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>6</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="O21" s="10">
+      <c r="O21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="10">
         <v>12</v>
       </c>
-      <c r="P21" s="10">
+      <c r="Q21" s="10">
         <v>4</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>157</v>
+      <c r="R21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA50230-27C8-45F2-AE07-D7250057C55B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2D688A-FB6A-4258-A397-4D8AAC673297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="228">
   <si>
     <t>paradigm</t>
   </si>
@@ -823,87 +823,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D6,4ms-D32,4ms-D16,4ms-D8,Noise-D128,Noise-D1024,4ms-D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021.1,508.5,252.2,124.1,60.1,28,12,4,128,1024,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-D1024,16ms-D512,16ms-D256,16ms-D128,16ms-D6,16ms-D32,16ms-D16,Noise-D128,Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,1,1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;5,6,7,8,11;10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4;4,5,6,7;9,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1000,1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1200,1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>484.1,486.4,479,480,508.5,492.8,495.7,496.1,496,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-500,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-700,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490.1,502.2,509.7,508.5,496.2,508.2,508.2,511,511.2,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>484.1,486.4,479,480,496.2,492.8,495.7,496.1,496,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for CSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-700,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008.3,496.2,240.1,112,48,16,0,128,1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,0,0,0,0,0,0,0,0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D6,4ms-D32,4ms-D16,4ms-D8,Noise-D128,Noise-D1024,4ms-D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021.1,508.5,252.2,124.1,60.1,28,12,4,128,1024,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16ms-D1024,16ms-D512,16ms-D256,16ms-D128,16ms-D6,16ms-D32,16ms-D16,Noise-D128,Noise-D1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0,0,0,0,0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1008.3,496.2,240.1,112,48,16,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,4,1,1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5;5,6,7,8,11;10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4;4,5,6,7;9,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1000,1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1200,1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>484.1,486.4,479,480,508.5,492.8,495.7,496.1,496,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-500,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-700,600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>490.1,502.2,509.7,508.5,496.2,508.2,508.2,511,511.2,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>484.1,486.4,479,480,496.2,492.8,495.7,496.1,496,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for CSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-700,1000</t>
+    <t>-200, 1600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,35 +1326,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="40.375" style="6" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="69.375" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="69.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.875" customWidth="1"/>
+    <col min="17" max="18" width="15.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
     <col min="20" max="20" width="20" style="12" customWidth="1"/>
     <col min="21" max="21" width="13" style="12" customWidth="1"/>
-    <col min="22" max="22" width="31.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1418,9 +1422,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="15"/>
@@ -1428,7 +1432,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="17"/>
@@ -1450,7 +1454,7 @@
       </c>
       <c r="V2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1489,7 @@
       <c r="R3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1527,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1565,7 @@
       <c r="U5" s="11"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1603,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1641,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1679,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1717,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1755,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1793,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1834,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>127</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>190</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>191</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>197</v>
       </c>
@@ -2586,31 +2590,31 @@
         <v>202</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
         <v>129</v>
@@ -2622,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P24" s="19">
         <v>12</v>
@@ -2631,10 +2635,10 @@
         <v>6</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>146</v>
@@ -2646,7 +2650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>198</v>
       </c>
@@ -2654,31 +2658,31 @@
         <v>205</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
         <v>133</v>
@@ -2690,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P25" s="19">
         <v>12</v>
@@ -2699,10 +2703,10 @@
         <v>6</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>146</v>
@@ -2714,7 +2718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>199</v>
       </c>
@@ -2725,19 +2729,19 @@
         <v>87</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>98</v>
@@ -2758,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P26" s="19">
         <v>8</v>
@@ -2782,7 +2786,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>200</v>
       </c>
@@ -2793,19 +2797,19 @@
         <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>98</v>
@@ -2826,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P27" s="19">
         <v>8</v>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2D688A-FB6A-4258-A397-4D8AAC673297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA9C3D-D881-4021-845F-B8F2E0A4E91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
   <si>
     <t>paradigm</t>
   </si>
@@ -823,18 +823,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D6,4ms-D32,4ms-D16,4ms-D8,Noise-D128,Noise-D1024,4ms-D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1021.1,508.5,252.2,124.1,60.1,28,12,4,128,1024,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16ms-D1024,16ms-D512,16ms-D256,16ms-D128,16ms-D6,16ms-D32,16ms-D16,Noise-D128,Noise-D1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,6 +900,40 @@
   </si>
   <si>
     <t>-200, 1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-D1024,16ms-D512,16ms-D256,16ms-D128,16ms-D64,16ms-D32,16ms-D16,Noise-D128,Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,Noise-D128,Noise-D1024,4ms-D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_sigma50_2_500msReg</t>
+  </si>
+  <si>
+    <t>4ms-Var50-v1,4ms-Var2-v1,4ms-Var50-v2,4ms-Var2-v2,4ms-Var50-v3,4ms-Var2-v3,4ms-Var50-v4,4ms-Var2-v4,4ms-Var50-v5,4ms-Var2-v5,4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511,508.2,511,508.2,511,508.2,511,508.2,511,508.2,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,3,5,7,9;11,2,4,6,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #00FF00, #0000FF, #000000, #AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1450,7 @@
     </row>
     <row r="2" spans="1:22" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="15"/>
@@ -1432,7 +1458,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="17"/>
@@ -2590,31 +2616,31 @@
         <v>202</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
         <v>129</v>
@@ -2626,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P24" s="19">
         <v>12</v>
@@ -2635,10 +2661,10 @@
         <v>6</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>146</v>
@@ -2658,31 +2684,31 @@
         <v>205</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
         <v>133</v>
@@ -2694,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P25" s="19">
         <v>12</v>
@@ -2703,10 +2729,10 @@
         <v>6</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>146</v>
@@ -2729,19 +2755,19 @@
         <v>87</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>98</v>
@@ -2762,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P26" s="19">
         <v>8</v>
@@ -2797,19 +2823,19 @@
         <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>98</v>
@@ -2830,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P27" s="19">
         <v>8</v>
@@ -2851,6 +2877,71 @@
         <v>146</v>
       </c>
       <c r="V27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <v>6</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P28" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>4</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>159</v>
       </c>
     </row>
